--- a/Angular Udemy notes.xlsx
+++ b/Angular Udemy notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All File NS\NOVELSOFT FILE\HICHEEL SURGALT\ANGULER\Angular in Udemy temdeglel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All File NS\NOVELSOFT FILE\HICHEEL SURGALT\ANGULER\Angular in Udemy temdeglel\course-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC8149-6DA3-4EC4-A477-33B0A34D4AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C631E33A-B5CE-42A2-926B-9D39309862D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="command" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,9 @@
     <sheet name="module.ts" sheetId="4" r:id="rId4"/>
     <sheet name="selector type" sheetId="5" r:id="rId5"/>
     <sheet name="databinding" sheetId="6" r:id="rId6"/>
-    <sheet name="directives" sheetId="7" r:id="rId7"/>
-    <sheet name="Decorator" sheetId="8" r:id="rId8"/>
+    <sheet name="Property &amp; Event binding" sheetId="9" r:id="rId7"/>
+    <sheet name="directives" sheetId="7" r:id="rId8"/>
+    <sheet name="Decorator" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>node -v</t>
   </si>
@@ -171,12 +172,36 @@
     ng g c recipes --skip-tests
     ng g c *name* --spec false</t>
   </si>
+  <si>
+    <t>Binding to Custom properties</t>
+  </si>
+  <si>
+    <t>`@Input() parentheses</t>
+  </si>
+  <si>
+    <t>element -&gt; srvElement болгох</t>
+  </si>
+  <si>
+    <t>Хэрвээ өөр property name ашиглах бол (assigning an alias to custom properties)</t>
+  </si>
+  <si>
+    <t>Binding to Custom Events</t>
+  </si>
+  <si>
+    <t>`@Output() &amp; EventEmiter&lt;{}&gt;</t>
+  </si>
+  <si>
+    <t>cockpit.component -&gt; app.component руу CUSTOM EVENT ашиглан дата дамжуулах</t>
+  </si>
+  <si>
+    <t>app.component -&gt; server-element.component руу CUSTOM Property ашиглан  дамжуулах</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +253,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -300,6 +333,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1754,22 +1788,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>259681</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>84006</xdr:rowOff>
+      <xdr:colOff>46659</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>36614</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB724F18-598F-57D7-986B-F14E352A7652}"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5D7E73-9F67-79BD-7ABE-752229025B6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,8 +1819,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="640080" y="16954500"/>
-          <a:ext cx="6934801" cy="2149026"/>
+          <a:off x="632460" y="510540"/>
+          <a:ext cx="6725589" cy="3000794"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1795,113 +1829,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>358748</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>30852</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630E6ACD-61C8-31A0-21D5-76764517ADF9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8580120" y="16588740"/>
-          <a:ext cx="7018628" cy="4290432"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>31115</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>61354</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC74B8EE-D5F5-2458-2FBE-104AABEB59A0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="624840" y="449580"/>
-          <a:ext cx="7331075" cy="4549534"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE25B16-0D2E-8A52-57D4-E81557C813E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1909,14 +1855,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1188720" y="3756660"/>
-          <a:ext cx="6050280" cy="205740"/>
+          <a:off x="1531620" y="2377440"/>
+          <a:ext cx="4137660" cy="548640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -1949,69 +1895,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>30</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>168287</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38536</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDE9687-0510-91B6-A6F2-04FEEA745906}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="624840" y="5661660"/>
-          <a:ext cx="7468247" cy="5029636"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6294F11A-33A5-4985-848D-6903E27CB3E6}"/>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF42BA6-6C65-4D1D-8060-94E0958EA259}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2019,14 +1921,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3025140" y="9067800"/>
-          <a:ext cx="1173480" cy="160020"/>
+          <a:off x="1744980" y="2689860"/>
+          <a:ext cx="1965960" cy="236220"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2059,25 +1961,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>193300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1253BA2-3826-26A6-058A-AA2997496D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8412480" y="533400"/>
+          <a:ext cx="6411220" cy="3181794"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>327660</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77E656C-5448-47EF-826D-199E168AC24E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622FB9B8-3E02-49ED-99FF-F6E85E5C7863}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2085,14 +2031,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1280160" y="9243060"/>
-          <a:ext cx="2705100" cy="891540"/>
+          <a:off x="10332720" y="1173480"/>
+          <a:ext cx="640080" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2125,113 +2071,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>564711</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>106899</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69968187-E243-229C-ABC0-E1D843715F86}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9265920" y="11620500"/>
-          <a:ext cx="9586791" cy="2522439"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>236935</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>91830</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B852918-4D6B-2E59-F916-FA5FCA5C78AE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="525780" y="11635740"/>
-          <a:ext cx="8245555" cy="4503810"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Rectangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1518BB7A-9D6A-4051-B690-733F4B7B934A}"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B57C88-D9CA-4567-AA58-707346D904C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,14 +2097,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1280160" y="14965680"/>
-          <a:ext cx="4640580" cy="662940"/>
+          <a:off x="9067800" y="2781300"/>
+          <a:ext cx="5067300" cy="243840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2281,23 +2139,123 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DC3BCA-7E77-62F9-BE99-C8B937279F4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414260" y="2179320"/>
+          <a:ext cx="876300" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>244935</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133688</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119EE6F1-71DF-E06D-5E6F-197855E55003}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15560040" y="1234440"/>
+          <a:ext cx="7849695" cy="2419688"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Rectangle 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFF903C-CF99-4719-A242-F6A23E72FF69}"/>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB59945-E98D-457F-BC4C-9748585D2028}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,14 +2263,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10096500" y="12496800"/>
-          <a:ext cx="3169920" cy="236220"/>
+          <a:off x="17350740" y="2606040"/>
+          <a:ext cx="1173480" cy="396240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2347,23 +2305,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9F274A-9E54-49EA-8EC6-59B68E26F852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B6EDF4-40A6-40DD-9BF7-DE9AD092EB43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,14 +2329,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1211580" y="18105120"/>
-          <a:ext cx="4206240" cy="236220"/>
+          <a:off x="18425160" y="2049780"/>
+          <a:ext cx="990600" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2413,23 +2371,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Rectangle 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF1A754-3A7B-406A-9B6A-E5ECA3CE4BC9}"/>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4DE4FC-60EF-42D1-B7CA-D58E5136DAC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,14 +2395,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9387840" y="18356580"/>
-          <a:ext cx="2575560" cy="632460"/>
+          <a:off x="21122640" y="2590800"/>
+          <a:ext cx="1455420" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2477,69 +2435,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>229255</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>8036</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206E0FDC-126F-F8DD-D80B-D463A2976C2B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="594360" y="21541740"/>
-          <a:ext cx="7559695" cy="4801016"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Rectangle 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F20DC6-7117-4D21-BD0F-4519D3858123}"/>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAB68DD-607E-46CE-9C9D-56CB8B61C64D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,14 +2461,14 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3771900" y="24650700"/>
-          <a:ext cx="1104900" cy="220980"/>
+          <a:off x="19522440" y="2766060"/>
+          <a:ext cx="1584960" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="19050">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
@@ -2587,10 +2501,1859 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>58094</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>169977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7D3370-F61E-E55B-A3E5-05223C74DEF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="7360920"/>
+          <a:ext cx="6763694" cy="3096057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>591489</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>168076</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D0B30E-F81C-101E-9B77-E41F953B6DFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8488680" y="7330440"/>
+          <a:ext cx="6725589" cy="3124636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBE7BAE-E350-4198-BB08-29157DCB3446}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1783080" y="9593580"/>
+          <a:ext cx="937260" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222F9715-C54C-4234-BE95-C19AD3829311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9677400" y="9570720"/>
+          <a:ext cx="1089660" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3818E4-594A-40C9-E48B-0B84993253E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10020300" y="9837420"/>
+          <a:ext cx="533400" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ADD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>603086</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>61816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F21713-555F-6E9C-EB27-8D252FF383F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="10142220"/>
+          <a:ext cx="7925906" cy="6134956"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD948238-9834-46F4-B8E9-E014FF419F80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1287780" y="12420600"/>
+          <a:ext cx="769620" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C77F7C-1717-4B70-A753-14369E5C35E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2110740" y="12420600"/>
+          <a:ext cx="5974080" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D99739-CC4E-458F-8607-79F7823C116B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1379220" y="13693140"/>
+          <a:ext cx="3108960" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A69E5B8-92A8-4849-8F03-8BCD7B3D1BDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1394460" y="15003780"/>
+          <a:ext cx="3108960" cy="731520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>185664</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>11922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA0D429-E8D5-51CE-8ED7-0EE7DAEECFD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9738360" y="10142220"/>
+          <a:ext cx="6296904" cy="3524742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangle 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B21FCA8-F23B-4E3B-A26F-6110680BCD67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10622280" y="11650980"/>
+          <a:ext cx="3276600" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFA6C14-78E1-C17C-63B4-489AC106A9F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1775460" y="3383280"/>
+          <a:ext cx="1203960" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Custom property</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555161F2-0673-4C8C-9AE1-559FB5085712}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12527280" y="11384280"/>
+          <a:ext cx="1203960" cy="281940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Custom Event</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>500112</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>60048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6312515-76D8-DCCF-1DEE-B3E4FEDB8B23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9776460" y="13914120"/>
+          <a:ext cx="7182852" cy="7116168"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BE9E78-E0C8-45B9-B16B-247563DF682C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8602980" y="12580620"/>
+          <a:ext cx="876300" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Rectangle 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7C2D07-8FB7-444D-A32A-25D871E89419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10355580" y="17922240"/>
+          <a:ext cx="6096000" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>259681</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>84006</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB724F18-598F-57D7-986B-F14E352A7652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640080" y="16954500"/>
+          <a:ext cx="6934801" cy="2149026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>358748</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>30852</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630E6ACD-61C8-31A0-21D5-76764517ADF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8580120" y="16588740"/>
+          <a:ext cx="7018628" cy="4290432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>31115</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>61354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC74B8EE-D5F5-2458-2FBE-104AABEB59A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="449580"/>
+          <a:ext cx="7331075" cy="4549534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1188720" y="3756660"/>
+          <a:ext cx="6050280" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>168287</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38536</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDE9687-0510-91B6-A6F2-04FEEA745906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="5661660"/>
+          <a:ext cx="7468247" cy="5029636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6294F11A-33A5-4985-848D-6903E27CB3E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3025140" y="9067800"/>
+          <a:ext cx="1173480" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77E656C-5448-47EF-826D-199E168AC24E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1280160" y="9243060"/>
+          <a:ext cx="2705100" cy="891540"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>564711</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>106899</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69968187-E243-229C-ABC0-E1D843715F86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9265920" y="11620500"/>
+          <a:ext cx="9586791" cy="2522439"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>236935</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>91830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B852918-4D6B-2E59-F916-FA5FCA5C78AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="525780" y="11635740"/>
+          <a:ext cx="8245555" cy="4503810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1518BB7A-9D6A-4051-B690-733F4B7B934A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1280160" y="14965680"/>
+          <a:ext cx="4640580" cy="662940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFF903C-CF99-4719-A242-F6A23E72FF69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10096500" y="12496800"/>
+          <a:ext cx="3169920" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9F274A-9E54-49EA-8EC6-59B68E26F852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1211580" y="18105120"/>
+          <a:ext cx="4206240" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF1A754-3A7B-406A-9B6A-E5ECA3CE4BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9387840" y="18356580"/>
+          <a:ext cx="2575560" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>229255</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>8036</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206E0FDC-126F-F8DD-D80B-D463A2976C2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="594360" y="21541740"/>
+          <a:ext cx="7559695" cy="4801016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F20DC6-7117-4D21-BD0F-4519D3858123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3771900" y="24650700"/>
+          <a:ext cx="1104900" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2921,7 +4684,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -3182,8 +4945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5304F5-4674-433D-9A2B-D7D774CF0325}">
   <dimension ref="B26:I138"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O148" sqref="O148"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3233,10 +4996,67 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642994D1-65CB-4E86-B479-7211B07BB225}">
+  <dimension ref="B1:D54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="O73" sqref="O73"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B50" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2FC86E-B7C9-41D8-A59C-DF2D2FFCEA26}">
   <dimension ref="A2:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A109" workbookViewId="0">
       <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
@@ -3283,7 +5103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C5D6F2-3EC0-4701-A23B-7655663ED245}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Angular Udemy notes.xlsx
+++ b/Angular Udemy notes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All File NS\NOVELSOFT FILE\HICHEEL SURGALT\ANGULER\Angular in Udemy temdeglel\course-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FILES\PROGRAM\Udemy\Angular\udemy-course-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C631E33A-B5CE-42A2-926B-9D39309862D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="command" sheetId="1" r:id="rId1"/>
@@ -22,8 +21,10 @@
     <sheet name="Property &amp; Event binding" sheetId="9" r:id="rId7"/>
     <sheet name="directives" sheetId="7" r:id="rId8"/>
     <sheet name="Decorator" sheetId="8" r:id="rId9"/>
+    <sheet name="Encapsulation" sheetId="10" r:id="rId10"/>
+    <sheet name="Local reference in templete" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>node -v</t>
   </si>
@@ -196,11 +197,23 @@
   <si>
     <t>app.component -&gt; server-element.component руу CUSTOM Property ашиглан  дамжуулах</t>
   </si>
+  <si>
+    <t>Encapsulation</t>
+  </si>
+  <si>
+    <t>Using Local Reference in Template</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Two way data binding  ---&gt;  Local Reference</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,10 +343,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4414,6 +4427,592 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>67127</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>26172</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640080" y="617220"/>
+          <a:ext cx="11619047" cy="3980952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>198121</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259081</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>115432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="807721" y="6041406"/>
+          <a:ext cx="8595360" cy="5458306"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>124666</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>172728</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754380" y="457200"/>
+          <a:ext cx="8514286" cy="5019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5448300" y="2537460"/>
+          <a:ext cx="1584960" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>468630</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="U-Turn Arrow 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9204960" y="2190750"/>
+          <a:ext cx="217170" cy="621030"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2735580" y="8458200"/>
+          <a:ext cx="2286000" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2941320" y="9083040"/>
+          <a:ext cx="1524000" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2933700" y="10027920"/>
+          <a:ext cx="2286000" cy="274320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2948940" y="10668000"/>
+          <a:ext cx="1569720" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605790</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="U-Turn Arrow 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5063490" y="8766810"/>
+          <a:ext cx="217170" cy="621030"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4681,11 +5280,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4716,29 +5315,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="17">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16"/>
+      <c r="C4" s="17"/>
     </row>
     <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16"/>
+      <c r="C5" s="17"/>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -4855,8 +5454,61 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B3" s="11"/>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B926B4C1-6667-4F60-969B-771A78333516}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4884,7 +5536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964E9469-B926-4CA7-A2D2-A860CEDF82A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4906,7 +5558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D9E2BC-25D7-4331-9903-86D4E28F6910}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4927,7 +5579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA3121D-0B1B-46F6-9557-0802BFC78FB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4942,7 +5594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E5304F5-4674-433D-9A2B-D7D774CF0325}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B26:I138"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -4996,10 +5648,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642994D1-65CB-4E86-B479-7211B07BB225}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="O73" sqref="O73"/>
     </sheetView>
   </sheetViews>
@@ -5011,7 +5663,7 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5036,7 +5688,7 @@
       </c>
     </row>
     <row r="52" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5053,10 +5705,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2FC86E-B7C9-41D8-A59C-DF2D2FFCEA26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I116"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
@@ -5104,7 +5756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1C5D6F2-3EC0-4701-A23B-7655663ED245}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Angular Udemy notes.xlsx
+++ b/Angular Udemy notes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FILES\PROGRAM\Udemy\Angular\udemy-course-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All File NS\NOVELSOFT FILE\HICHEEL SURGALT\ANGULER\Angular in Udemy temdeglel\course-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9BAA64-A8C3-4959-BDA2-063121D7103B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="command" sheetId="1" r:id="rId1"/>
@@ -23,6 +24,9 @@
     <sheet name="Decorator" sheetId="8" r:id="rId9"/>
     <sheet name="Encapsulation" sheetId="10" r:id="rId10"/>
     <sheet name="Local reference in templete" sheetId="11" r:id="rId11"/>
+    <sheet name="@ViewChild" sheetId="12" r:id="rId12"/>
+    <sheet name="ng-content" sheetId="14" r:id="rId13"/>
+    <sheet name="lifecycle hook" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>node -v</t>
   </si>
@@ -209,11 +213,26 @@
   <si>
     <t>Two way data binding  ---&gt;  Local Reference</t>
   </si>
+  <si>
+    <t>Getting Access to the Template &amp; DOM with @ViewChild</t>
+  </si>
+  <si>
+    <t>`@ViewChild</t>
+  </si>
+  <si>
+    <t>Protect content into Components with ng-content</t>
+  </si>
+  <si>
+    <t>&lt;ng-content&gt;&lt;/ng-content&gt;</t>
+  </si>
+  <si>
+    <t>selector дээр бичсэн html-ийг &lt;ng-content&gt;-оор дамжуулан харуулах боломжтой.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -384,7 +403,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14FB8729-FFCE-46FF-F790-135E7C62F573}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -413,27 +432,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>350971</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>160358</xdr:rowOff>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30426</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E55D8B8-C25A-49CB-8E6E-4167B8F70FB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B05117-F1A8-F3B9-35A5-71A63230B5B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -449,40 +468,620 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="632460" y="464820"/>
-          <a:ext cx="5204911" cy="3901778"/>
+          <a:off x="647699" y="815340"/>
+          <a:ext cx="6697927" cy="3771900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8BEB3D-8420-4E0E-83BB-25AF1C258814}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4061460" y="2788920"/>
+          <a:ext cx="1432560" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>118081</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>84316</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34462E6-15D8-CB3F-CFED-6A19D5DE7D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="4918681"/>
+          <a:ext cx="6728460" cy="6001275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D593B3C7-1E0F-441B-81D3-F55684307C8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1196340" y="7239000"/>
+          <a:ext cx="4914900" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC72455-729F-4145-A74D-8213747A061D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1501140" y="8747760"/>
+          <a:ext cx="3482340" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F02046-E86C-4EAB-A270-300BD0B90C75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1493520" y="10142220"/>
+          <a:ext cx="3451860" cy="160020"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>72390</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="U-Turn Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D500BA38-DFD4-44EC-8F55-6EEED38A9723}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5139690" y="8431530"/>
+          <a:ext cx="217170" cy="621030"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="U-Turn Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2974DCF-DA6D-4E7D-BE89-DBE254A792D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="5048250" y="9848850"/>
+          <a:ext cx="217170" cy="621030"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>102870</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="U-Turn Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A71EFEC-9266-4440-957E-90FE74FF37F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6998970" y="2518410"/>
+          <a:ext cx="217170" cy="621030"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A6D3E-530F-4DE0-9328-50E919B3EFA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2636520" y="2994660"/>
+          <a:ext cx="2171700" cy="4191000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>46106</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>91727</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>236769</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91636</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FC1BFC-4ED8-A089-A9DF-39211A493995}"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EFC4F86-1084-2FE6-AFE9-9412B03DA0EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -498,8 +1097,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="464820" y="800100"/>
-          <a:ext cx="4458086" cy="3314987"/>
+          <a:off x="1219200" y="800100"/>
+          <a:ext cx="6332769" cy="2263336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -510,23 +1109,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>526241</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>106959</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>229096</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>61206</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3248E1-CEE2-4FF1-454D-90BD097FBF84}"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9F4BBC-B920-0F54-2A13-BC9556423B05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -542,6 +1141,1068 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="1211580" y="4030980"/>
+          <a:ext cx="5723116" cy="2842506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>450163</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>30785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E621F00-8CD1-697F-B040-E64CBEC08818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7741920" y="4053840"/>
+          <a:ext cx="6729043" cy="3520745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BE75EB-812B-4800-9FD9-869B04A167C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1912620" y="2377440"/>
+          <a:ext cx="1607820" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152404</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="U-Turn Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65867A03-E53C-462E-867C-9D52FA6CC28E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7456168" y="2236472"/>
+          <a:ext cx="312424" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="uturnArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1897380" y="1828800"/>
+          <a:ext cx="5471160" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198119</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243838</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0020F4-5693-4B95-8FC3-20992692100B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3855719" y="6080760"/>
+          <a:ext cx="45719" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75550C34-7894-41B5-AE1F-FE9AB6584E6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8663940" y="6263640"/>
+          <a:ext cx="5570220" cy="525780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243838</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4857B00-2150-47F1-91DB-D15BFA41537C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="1"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3901438" y="6229350"/>
+          <a:ext cx="4762502" cy="297180"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>492597</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>167945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA158268-2014-1C4A-CF08-DA873AC1F830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7703820" y="7863840"/>
+          <a:ext cx="6809577" cy="3139745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Rectangle 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A09EDDA-21D4-4655-8276-589D81E5B703}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9448800" y="9974580"/>
+          <a:ext cx="739140" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1831BFA-1A90-4394-BE0A-71C59E48AB67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9235440" y="10126980"/>
+          <a:ext cx="739140" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA33E97D-7D5A-4D0F-BC5C-777319B49D18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12352020" y="9982200"/>
+          <a:ext cx="739140" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9407CC0-A4EB-4F0D-8290-35AD380F05C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11269980" y="10142220"/>
+          <a:ext cx="739140" cy="137160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397EFCF2-6762-4BBB-AD83-E3B54FF1B15C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9479280" y="6560820"/>
+          <a:ext cx="739140" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981BA431-74F9-4B1B-A48A-57792DF385DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="20" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="6675120"/>
+          <a:ext cx="26670" cy="3215640"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>328477</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>160490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADAE0ABB-3AF6-C43C-92A2-E3DF0FFCB710}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="655320" y="228600"/>
+          <a:ext cx="9426757" cy="5418290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>350971</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>160358</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="464820"/>
+          <a:ext cx="5204911" cy="3901778"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>46106</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>91727</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="464820" y="800100"/>
+          <a:ext cx="4458086" cy="3314987"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>526241</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="5570220" y="0"/>
           <a:ext cx="5319221" cy="3215919"/>
         </a:xfrm>
@@ -570,7 +2231,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8569D0B5-13DC-1C1D-5F65-6D084CF239A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -626,7 +2287,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A2C451-F770-4DD5-8F53-732D0D9FB044}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -682,7 +2343,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DF5A1D-8361-464E-8D33-CD0374C8AD10}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,7 +2404,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA0CA40-AB57-C5D0-D37C-3F440326533D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -787,7 +2448,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A31014EF-1A8D-5B50-4858-4BB3BD4D2AFA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -831,7 +2492,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBBAB35-F920-07DE-59FC-CDD6992C80FF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,7 +2536,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEFFF91-F56F-3D31-B9EB-6DDA0CFD6719}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -919,7 +2580,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F379BA5-1E33-716B-9CA4-5A07D4C37DA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -963,7 +2624,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE784291-8809-373F-DDAF-07C47C1CEE87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1029,7 +2690,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61DEF132-6EFB-4F67-B2F0-D866DE5EBD57}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1095,7 +2756,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A3B32C0-F279-CED4-77BC-0E84273E486A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1139,7 +2800,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4848C6-7681-EA73-F09E-AFD2D429E54A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1183,7 +2844,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AABFB7D-D8F8-4BC1-B194-7C3ABC318755}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1249,7 +2910,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{198BE684-2613-471D-A7A2-6A3EF1AD1E00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1315,7 +2976,7 @@
         <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD555ECC-45DF-4310-BB06-C54344EC7BA9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1381,7 +3042,7 @@
         <xdr:cNvPr id="14" name="Picture 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B547291-3DD9-FAE3-191C-18E346FC783E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1425,7 +3086,7 @@
         <xdr:cNvPr id="15" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFE1A528-E741-4B2E-A9A3-B9789A1931C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1491,7 +3152,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ECB245C-27DD-B6B7-89A6-12DC706ABD8E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1535,7 +3196,7 @@
         <xdr:cNvPr id="17" name="Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F43F6061-FD15-4229-99C9-0C8916D815C9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1601,7 +3262,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BC5ADAF-E8E0-162D-21A7-3B20DD4F8C15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1645,7 +3306,7 @@
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E914C95B-35C7-482B-968F-73E5E09B5618}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1711,7 +3372,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33EC3407-9B84-A30F-1A22-410555C88303}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1755,7 +3416,7 @@
         <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77D01A91-8DA7-12EF-AB9E-9DB2DB224633}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1816,7 +3477,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5D7E73-9F67-79BD-7ABE-752229025B6C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1860,7 +3521,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDE25B16-0D2E-8A52-57D4-E81557C813E7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1926,7 +3587,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AF42BA6-6C65-4D1D-8060-94E0958EA259}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,7 +3653,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1253BA2-3826-26A6-058A-AA2997496D92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +3697,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{622FB9B8-3E02-49ED-99FF-F6E85E5C7863}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2102,7 +3763,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B57C88-D9CA-4567-AA58-707346D904C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2168,7 +3829,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56DC3BCA-7E77-62F9-BE99-C8B937279F4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +3885,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{119EE6F1-71DF-E06D-5E6F-197855E55003}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2268,7 +3929,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADB59945-E98D-457F-BC4C-9748585D2028}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2334,7 +3995,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B6EDF4-40A6-40DD-9BF7-DE9AD092EB43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2400,7 +4061,7 @@
         <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A4DE4FC-60EF-42D1-B7CA-D58E5136DAC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2466,7 +4127,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBAB68DD-607E-46CE-9C9D-56CB8B61C64D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2532,7 +4193,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A7D3370-F61E-E55B-A3E5-05223C74DEF3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2576,7 +4237,7 @@
         <xdr:cNvPr id="16" name="Picture 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7D0B30E-F81C-101E-9B77-E41F953B6DFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2620,7 +4281,7 @@
         <xdr:cNvPr id="17" name="Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CBE7BAE-E350-4198-BB08-29157DCB3446}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2686,7 +4347,7 @@
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222F9715-C54C-4234-BE95-C19AD3829311}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2752,7 +4413,7 @@
         <xdr:cNvPr id="20" name="TextBox 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F3818E4-594A-40C9-E48B-0B84993253E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2820,7 +4481,7 @@
         <xdr:cNvPr id="22" name="Picture 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F21713-555F-6E9C-EB27-8D252FF383F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2864,7 +4525,7 @@
         <xdr:cNvPr id="23" name="Rectangle 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD948238-9834-46F4-B8E9-E014FF419F80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2930,7 +4591,7 @@
         <xdr:cNvPr id="24" name="Rectangle 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73C77F7C-1717-4B70-A753-14369E5C35E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2996,7 +4657,7 @@
         <xdr:cNvPr id="25" name="Rectangle 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91D99739-CC4E-458F-8607-79F7823C116B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3062,7 +4723,7 @@
         <xdr:cNvPr id="26" name="Rectangle 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A69E5B8-92A8-4849-8F03-8BCD7B3D1BDA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3128,7 +4789,7 @@
         <xdr:cNvPr id="27" name="Picture 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA0D429-E8D5-51CE-8ED7-0EE7DAEECFD2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3172,7 +4833,7 @@
         <xdr:cNvPr id="28" name="Rectangle 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B21FCA8-F23B-4E3B-A26F-6110680BCD67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3238,7 +4899,7 @@
         <xdr:cNvPr id="29" name="TextBox 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AFA6C14-78E1-C17C-63B4-489AC106A9F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3306,7 +4967,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{555161F2-0673-4C8C-9AE1-559FB5085712}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3374,7 +5035,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6312515-76D8-DCCF-1DEE-B3E4FEDB8B23}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3418,7 +5079,7 @@
         <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2BE9E78-E0C8-45B9-B16B-247563DF682C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3474,7 +5135,7 @@
         <xdr:cNvPr id="33" name="Rectangle 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE7C2D07-8FB7-444D-A32A-25D871E89419}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3545,7 +5206,7 @@
         <xdr:cNvPr id="18" name="Picture 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB724F18-598F-57D7-986B-F14E352A7652}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3589,7 +5250,7 @@
         <xdr:cNvPr id="17" name="Picture 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{630E6ACD-61C8-31A0-21D5-76764517ADF9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3633,7 +5294,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC74B8EE-D5F5-2458-2FBE-104AABEB59A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3677,7 +5338,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3743,7 +5404,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CDE9687-0510-91B6-A6F2-04FEEA745906}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3787,7 +5448,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6294F11A-33A5-4985-848D-6903E27CB3E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3853,7 +5514,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77E656C-5448-47EF-826D-199E168AC24E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3919,7 +5580,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69968187-E243-229C-ABC0-E1D843715F86}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3963,7 +5624,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B852918-4D6B-2E59-F916-FA5FCA5C78AE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4007,7 +5668,7 @@
         <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1518BB7A-9D6A-4051-B690-733F4B7B934A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4073,7 +5734,7 @@
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFF903C-CF99-4719-A242-F6A23E72FF69}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4139,7 +5800,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F9F274A-9E54-49EA-8EC6-59B68E26F852}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4205,7 +5866,7 @@
         <xdr:cNvPr id="15" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AF1A754-3A7B-406A-9B6A-E5ECA3CE4BC9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4271,7 +5932,7 @@
         <xdr:cNvPr id="19" name="Picture 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{206E0FDC-126F-F8DD-D80B-D463A2976C2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4315,7 +5976,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3F20DC6-7117-4D21-BD0F-4519D3858123}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4386,7 +6047,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="Angular Decorators with Examples - Dot Net Tutorials">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5521DF26-ED5F-987D-425B-9034B6635436}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4449,7 +6110,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4492,7 +6159,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4530,7 +6203,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4571,7 +6250,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4634,7 +6313,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="U-Turn Arrow 3"/>
+        <xdr:cNvPr id="4" name="U-Turn Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4703,7 +6388,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4769,7 +6454,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4835,7 +6520,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4901,7 +6586,7 @@
         <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00353134-0A4B-439C-BC5A-4FAED222EB02}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4964,7 +6649,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="U-Turn Arrow 9"/>
+        <xdr:cNvPr id="10" name="U-Turn Arrow 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5013,6 +6704,120 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7AF0DE-446F-E11C-5408-59B0667BE932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4914900" y="2987040"/>
+          <a:ext cx="1303020" cy="1089660"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3291E062-284E-4394-8F9D-B52608A17E8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5280660" y="2987040"/>
+          <a:ext cx="960120" cy="1775460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5280,7 +7085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5455,7 +7260,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5476,11 +7281,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5507,8 +7312,81 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672D1646-46EC-452A-BD29-D37ABC9DE1FF}">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2575074-7E49-4933-8E04-3A7BE8D844D8}">
+  <dimension ref="B2:C21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D35DA9-9383-4CC6-962C-3AF68B69283E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T27" sqref="T27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5536,7 +7414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5558,7 +7436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5579,7 +7457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5594,7 +7472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B26:I138"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -5648,7 +7526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -5705,7 +7583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5756,7 +7634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Angular Udemy notes.xlsx
+++ b/Angular Udemy notes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All File NS\NOVELSOFT FILE\HICHEEL SURGALT\ANGULER\Angular in Udemy temdeglel\course-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FILES\PROGRAM\Udemy\Angular\udemy-course-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9BAA64-A8C3-4959-BDA2-063121D7103B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="command" sheetId="1" r:id="rId1"/>
@@ -27,6 +26,7 @@
     <sheet name="@ViewChild" sheetId="12" r:id="rId12"/>
     <sheet name="ng-content" sheetId="14" r:id="rId13"/>
     <sheet name="lifecycle hook" sheetId="15" r:id="rId14"/>
+    <sheet name="@ContentChild" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>node -v</t>
   </si>
@@ -228,11 +228,20 @@
   <si>
     <t>selector дээр бичсэн html-ийг &lt;ng-content&gt;-оор дамжуулан харуулах боломжтой.</t>
   </si>
+  <si>
+    <t>LifeCycle Hooks and Template Access</t>
+  </si>
+  <si>
+    <t>Lifecycle Hooks and Template Access</t>
+  </si>
+  <si>
+    <t>81. Getting Access to ng-content with @ContentChild</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2069,6 +2078,1049 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>605026</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>18081</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7292340" y="6164580"/>
+          <a:ext cx="6114286" cy="7752381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574589</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>178010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="899160" y="6149340"/>
+          <a:ext cx="5771429" cy="8476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>15241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124909</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662940" y="15468601"/>
+          <a:ext cx="6167569" cy="2232660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>290364</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7330440" y="15476220"/>
+          <a:ext cx="8809524" cy="8390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2842260" y="16162020"/>
+          <a:ext cx="586740" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7520940" y="16383000"/>
+          <a:ext cx="5455920" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7719060" y="19324320"/>
+          <a:ext cx="6522720" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7711440" y="23187660"/>
+          <a:ext cx="6522720" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>88803</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>31331</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="937260" y="18943320"/>
+          <a:ext cx="5857143" cy="8428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4857B00-2150-47F1-91DB-D15BFA41537C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3733800" y="19469100"/>
+          <a:ext cx="3901440" cy="2621280"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4857B00-2150-47F1-91DB-D15BFA41537C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3657600" y="23332440"/>
+          <a:ext cx="4053840" cy="586740"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2575560" y="21930360"/>
+          <a:ext cx="1112520" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rectangle 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="23682960"/>
+          <a:ext cx="1112520" cy="312420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>345298</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>73591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="480060"/>
+          <a:ext cx="11295238" cy="5628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>181566</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>29332</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640080" y="6438900"/>
+          <a:ext cx="10514286" cy="9180952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>70757</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2415540" y="4191000"/>
+          <a:ext cx="1059180" cy="314597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>146957</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1417320" y="7741920"/>
+          <a:ext cx="6522720" cy="314597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>2177</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="10888980"/>
+          <a:ext cx="7962900" cy="314597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>47897</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1638300" y="12946380"/>
+          <a:ext cx="7962900" cy="314597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7085,7 +8137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7260,7 +8312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7281,7 +8333,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G3"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -7313,7 +8365,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672D1646-46EC-452A-BD29-D37ABC9DE1FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7340,10 +8392,10 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2575074-7E49-4933-8E04-3A7BE8D844D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -7371,22 +8423,56 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7D35DA9-9383-4CC6-962C-3AF68B69283E}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B33:B83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B33" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B83" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="U71" sqref="U71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7414,7 +8500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7436,7 +8522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7457,7 +8543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7472,7 +8558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B26:I138"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -7526,7 +8612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -7583,11 +8669,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7634,7 +8720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Angular Udemy notes.xlsx
+++ b/Angular Udemy notes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="command" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <sheet name="ng-content" sheetId="14" r:id="rId13"/>
     <sheet name="lifecycle hook" sheetId="15" r:id="rId14"/>
     <sheet name="@ContentChild" sheetId="16" r:id="rId15"/>
+    <sheet name="setInterval" sheetId="17" r:id="rId16"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>node -v</t>
   </si>
@@ -237,6 +238,9 @@
   <si>
     <t>81. Getting Access to ng-content with @ContentChild</t>
   </si>
+  <si>
+    <t>setInterval(() =&gt; {},1000)</t>
+  </si>
 </sst>
 </file>
 
@@ -3085,6 +3089,247 @@
         <a:xfrm>
           <a:off x="1638300" y="12946380"/>
           <a:ext cx="7962900" cy="314597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>94577</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>265015</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>127983</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704177" y="932330"/>
+          <a:ext cx="8095238" cy="6062618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53788</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1739153" y="4473388"/>
+          <a:ext cx="4410635" cy="941294"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>564778</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161366</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1783978" y="6024282"/>
+          <a:ext cx="3863788" cy="286871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457202</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>215153</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676402" y="3541058"/>
+          <a:ext cx="977151" cy="286871"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8141,7 +8386,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8471,6 +8716,28 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
@@ -8672,7 +8939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>

--- a/Angular Udemy notes.xlsx
+++ b/Angular Udemy notes.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FILES\PROGRAM\Udemy\Angular\udemy-course-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All File NS\NOVELSOFT FILE\HICHEEL SURGALT\ANGULER\Angular in Udemy temdeglel\course-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524019D-DD8B-40DF-853C-3591CF1D2D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="command" sheetId="1" r:id="rId1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>node -v</t>
   </si>
@@ -241,12 +242,69 @@
   <si>
     <t>setInterval(() =&gt; {},1000)</t>
   </si>
+  <si>
+    <t>90.Module intoduction</t>
+  </si>
+  <si>
+    <t>93. Creating a Basic Attribute Directive</t>
+  </si>
+  <si>
+    <t>***.directice.ts файл үүсгэнэ.</t>
+  </si>
+  <si>
+    <t>app.module.ts файл руу оруулна.</t>
+  </si>
+  <si>
+    <t>****.component.html файл даа ашиглана</t>
+  </si>
+  <si>
+    <t>Шинэ directive үүсгэх комманд:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ng g d *****</t>
+  </si>
+  <si>
+    <t>94. Using the Renderer to build a Better Attribute Directive</t>
+  </si>
+  <si>
+    <t>https://angular.io/api/core/Renderer2</t>
+  </si>
+  <si>
+    <t>Renderer 2 линк</t>
+  </si>
+  <si>
+    <t>96. Using HostListener to Listen to Host Events</t>
+  </si>
+  <si>
+    <t>97. Using HostBinding to Bind to Host Properties</t>
+  </si>
+  <si>
+    <t>98. Binding to Directive Properties</t>
+  </si>
+  <si>
+    <t>Бичиглэл сайжруулах</t>
+  </si>
+  <si>
+    <t>99. What Happens behind the Scenes on Structural Directives</t>
+  </si>
+  <si>
+    <t>100. Building a Structural Directive</t>
+  </si>
+  <si>
+    <t>[ngSwitch]</t>
+  </si>
+  <si>
+    <t>*ngSwitchCase</t>
+  </si>
+  <si>
+    <t>*ngSwitchDefaukt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +364,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -342,7 +420,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -376,9 +454,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,7 +546,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02B05117-F1A8-F3B9-35A5-71A63230B5B7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -509,7 +590,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8BEB3D-8420-4E0E-83BB-25AF1C258814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -575,7 +656,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34462E6-15D8-CB3F-CFED-6A19D5DE7D9C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -619,7 +700,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D593B3C7-1E0F-441B-81D3-F55684307C8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -685,7 +766,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EC72455-729F-4145-A74D-8213747A061D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -751,7 +832,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F02046-E86C-4EAB-A270-300BD0B90C75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +898,7 @@
         <xdr:cNvPr id="8" name="U-Turn Arrow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D500BA38-DFD4-44EC-8F55-6EEED38A9723}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -889,7 +970,7 @@
         <xdr:cNvPr id="9" name="U-Turn Arrow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2974DCF-DA6D-4E7D-BE89-DBE254A792D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -961,7 +1042,7 @@
         <xdr:cNvPr id="10" name="U-Turn Arrow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A71EFEC-9266-4440-957E-90FE74FF37F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1033,7 +1114,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B43A6D3E-530F-4DE0-9328-50E919B3EFA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,7 +1175,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EFC4F86-1084-2FE6-AFE9-9412B03DA0EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1138,7 +1219,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E9F4BBC-B920-0F54-2A13-BC9556423B05}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1182,7 +1263,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E621F00-8CD1-697F-B040-E64CBEC08818}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,7 +1307,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44BE75EB-812B-4800-9FD9-869B04A167C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1292,7 +1373,7 @@
         <xdr:cNvPr id="7" name="U-Turn Arrow 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65867A03-E53C-462E-867C-9D52FA6CC28E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1364,7 +1445,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1430,7 +1511,7 @@
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0020F4-5693-4B95-8FC3-20992692100B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1496,7 +1577,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75550C34-7894-41B5-AE1F-FE9AB6584E6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1562,7 +1643,7 @@
         <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4857B00-2150-47F1-91DB-D15BFA41537C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1621,7 +1702,7 @@
         <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA158268-2014-1C4A-CF08-DA873AC1F830}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1665,7 +1746,7 @@
         <xdr:cNvPr id="16" name="Rectangle 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A09EDDA-21D4-4655-8276-589D81E5B703}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1731,7 +1812,7 @@
         <xdr:cNvPr id="17" name="Rectangle 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1831BFA-1A90-4394-BE0A-71C59E48AB67}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +1878,7 @@
         <xdr:cNvPr id="18" name="Rectangle 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA33E97D-7D5A-4D0F-BC5C-777319B49D18}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1863,7 +1944,7 @@
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9407CC0-A4EB-4F0D-8290-35AD380F05C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1929,7 +2010,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{397EFCF2-6762-4BBB-AD83-E3B54FF1B15C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +2076,7 @@
         <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981BA431-74F9-4B1B-A48A-57792DF385DA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2058,7 +2139,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADAE0ABB-3AF6-C43C-92A2-E3DF0FFCB710}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,7 +2180,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2137,7 +2224,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2175,7 +2268,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2213,7 +2312,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2254,7 +2359,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2320,7 +2425,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2386,7 +2491,7 @@
         <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2452,7 +2557,7 @@
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2620,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2556,7 +2667,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4857B00-2150-47F1-91DB-D15BFA41537C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2612,7 +2723,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4857B00-2150-47F1-91DB-D15BFA41537C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2668,7 +2779,7 @@
         <xdr:cNvPr id="19" name="Rectangle 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2734,7 +2845,7 @@
         <xdr:cNvPr id="20" name="Rectangle 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2913,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2840,7 +2957,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2881,7 +3004,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2947,7 +3070,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3013,7 +3136,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3079,7 +3202,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3147,7 +3270,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3188,7 +3317,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3254,7 +3383,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3320,7 +3449,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73D8EAB9-FD5A-4209-A0E3-5107DFCD451B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7321,6 +7450,3014 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>267197</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>45972</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4269A8CC-A9CF-991D-112A-D0911981F366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="27172920"/>
+          <a:ext cx="5730737" cy="2911092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>518943</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>15488</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5815E5F7-641B-D3B8-9262-429220F9D396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="31120080"/>
+          <a:ext cx="9038103" cy="2865368"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>579752</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>84187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F23CC0-DAFF-1DD6-1A21-FF2213D34B77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="34571940"/>
+          <a:ext cx="7292972" cy="4237087"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>187</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>434905</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>175635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3059F4-58D5-7BAB-68DC-371FF09A20D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8549640" y="34571940"/>
+          <a:ext cx="6515665" cy="4328535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Rectangle 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52D29F95-B92E-4702-BD85-91C5A60F2D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="906780" y="32857440"/>
+          <a:ext cx="1447800" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Rectangle 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C443512-79F6-4B7B-A1CF-53B80E86299A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3573780" y="31158180"/>
+          <a:ext cx="4587240" cy="2217420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105C365F-080D-494A-A7C3-086B944D2806}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1325880" y="37101780"/>
+          <a:ext cx="1447800" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>197</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE5D61DA-A9A7-4F58-9BC0-D54C36F0737B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1104900" y="36233100"/>
+          <a:ext cx="6758940" cy="220980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18ED015F-6EAB-4CFD-80EF-85853B0E4180}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9509760" y="38183820"/>
+          <a:ext cx="3078480" cy="198120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Rectangle 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E463B23-9F0B-4404-AB0E-A70EB06AAC47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4747260" y="32202120"/>
+          <a:ext cx="1447800" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{822F41F9-2BC7-4FBF-9263-6FCA088DC85D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2895600" y="32423100"/>
+          <a:ext cx="2606040" cy="4663440"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>442684</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>45791</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B9CF2CC-4357-B76B-9313-6F1E0BB9F1C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="617220" y="40012620"/>
+          <a:ext cx="8359864" cy="815411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175749</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>129755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C8F8C5-D87D-340A-F25C-D647D9764C71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="41170860"/>
+          <a:ext cx="5639289" cy="2484335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>160560</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>61347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDB1CB82-60B7-F690-51FA-B6331A4A64D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7345680" y="41132760"/>
+          <a:ext cx="6226080" cy="4465707"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E29169-4E55-4AEE-B52F-8E5D8296E586}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="41544240"/>
+          <a:ext cx="5379720" cy="2019300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67C5BBCC-BD93-4964-B64F-BAEA00412C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8298180" y="44942760"/>
+          <a:ext cx="1135380" cy="144780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rectangle 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63F601EB-6947-4680-8AB1-8D4562235CA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1455420" y="43022520"/>
+          <a:ext cx="4533900" cy="213360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>253</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>366426</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E97187-4618-AA32-2444-8147BEA7D7FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="46718220"/>
+          <a:ext cx="7681626" cy="4846740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Rectangle 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28262980-9EF4-43FE-86CF-48CF171C6D82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1272540" y="49552860"/>
+          <a:ext cx="6408420" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>272</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>276</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rectangle 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{080B0274-5D38-414B-96A4-6D49B2893655}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1272540" y="50292000"/>
+          <a:ext cx="6408420" cy="693420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623B3ABB-DB1F-4222-BCFA-E4806DF3CE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1539240" y="49080420"/>
+          <a:ext cx="6134100" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>267</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEAF9FB9-85AD-4795-ACCC-1C2B0644DB14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5981700" y="49270920"/>
+          <a:ext cx="419100" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>564563</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>23304</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="Picture 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D41DCA5B-FD95-66E1-6511-6723524C0D53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="601980" y="52417980"/>
+          <a:ext cx="7887383" cy="5121084"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangle 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86576AB5-80D3-46DE-AF69-BDCFA4C801E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1188720" y="54239160"/>
+          <a:ext cx="4747260" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B89C7F1-3A93-496A-9357-E6D603177E95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1363980" y="56174640"/>
+          <a:ext cx="2316480" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>310</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1724122A-2CFA-4B8D-AD48-FEF8F7FE6BC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="57035700"/>
+          <a:ext cx="2819400" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B56E21-FB3E-0744-F71B-0E312EAAFF01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2232660" y="54322980"/>
+          <a:ext cx="1630680" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>738</xdr:colOff>
+      <xdr:row>350</xdr:row>
+      <xdr:rowOff>137694</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A578DB14-6ABC-6D4D-B918-4309D06FAE1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="58491120"/>
+          <a:ext cx="8512278" cy="6157494"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>329</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="Rectangle 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B0663C-D33A-4A95-94D3-7EFC4446C3C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1348740" y="60251340"/>
+          <a:ext cx="3497580" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA0030D7-FC94-453E-A46F-40B5B3655E39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1554480" y="61554360"/>
+          <a:ext cx="3070860" cy="236220"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>340</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>342</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4EFEAC-0CC7-4A43-AA34-C9ED91030142}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1531620" y="62788800"/>
+          <a:ext cx="3223260" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>348</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangle 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A61810-641F-4271-9A50-9908657836C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="63893700"/>
+          <a:ext cx="3223260" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>275084</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>53662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD12ADF8-6482-3DE7-FF75-A14F5C754C3C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9745980" y="58475880"/>
+          <a:ext cx="8817104" cy="3711262"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A97CBE3-EBC0-4A27-AEA1-8597855F7B5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12313920" y="61417200"/>
+          <a:ext cx="3703320" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE198E58-D3C3-4C60-B082-5394C771D8B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4930140" y="60487560"/>
+          <a:ext cx="7368540" cy="982980"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>355</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>442685</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>107196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D7400F-84FA-7CD1-058D-0B31A0F66E02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="65425320"/>
+          <a:ext cx="8367485" cy="5959356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Rectangle 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAB114D-862F-4C1E-B4C4-901CD7A05068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1844040" y="67360800"/>
+          <a:ext cx="1485900" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>526458</xdr:colOff>
+      <xdr:row>381</xdr:row>
+      <xdr:rowOff>46137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{685ED644-9200-1417-B7E0-7C0A1977942A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9768840" y="65410080"/>
+          <a:ext cx="7826418" cy="4816257"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Rectangle 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE229C76-6CA9-43E3-9681-E97EB23D9CCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10995660" y="69395340"/>
+          <a:ext cx="2095500" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>376</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>377</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Rectangle 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CBA9E68-76CB-436F-BC88-F6C00FE3624C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13136880" y="69395340"/>
+          <a:ext cx="1592580" cy="205740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>35858</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>26894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>394716</xdr:colOff>
+      <xdr:row>420</xdr:row>
+      <xdr:rowOff>13432</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="Picture 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0FEEF07-6F9B-E8FC-C10C-90B48DD5899A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="645458" y="70919788"/>
+          <a:ext cx="8283658" cy="5006774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>413</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Rectangle 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E57083FC-2209-4ACE-8C3D-2433F9A5DA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1640541" y="74147081"/>
+          <a:ext cx="2438400" cy="510989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>528918</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>209748</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>121399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="Picture 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17629D65-546F-0D1A-81E5-EB884256AFCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="528918" y="76639270"/>
+          <a:ext cx="10044030" cy="4343776"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>443</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Rectangle 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94F1F98E-56A7-4836-B7D5-95E8D6E3F1DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3738283" y="77087506"/>
+          <a:ext cx="6759388" cy="3110753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>582706</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>331911</xdr:colOff>
+      <xdr:row>483</xdr:row>
+      <xdr:rowOff>58806</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="Picture 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D3A766-4CDB-EDD5-D283-732A8264D0EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="582706" y="81202306"/>
+          <a:ext cx="7674005" cy="6172735"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>475130</xdr:colOff>
+      <xdr:row>470</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>170329</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rectangle 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F6F4248-8A0C-41A3-99B5-0C96FB483153}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1694330" y="85110918"/>
+          <a:ext cx="3962399" cy="1210235"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161366</xdr:colOff>
+      <xdr:row>470</xdr:row>
+      <xdr:rowOff>161364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17930</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rectangle 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFEECFBA-BCDA-4E34-A3B6-7A9108111BD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990166" y="85146776"/>
+          <a:ext cx="1685364" cy="233083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>466165</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>349624</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rectangle 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E4D928C-310E-40A2-A97E-527683A3325D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733365" y="77580566"/>
+          <a:ext cx="1102659" cy="233082"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>432</xdr:row>
+      <xdr:rowOff>125507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="Rectangle 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582E6544-C121-4F5F-B88E-1219ECF77D4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4921624" y="78297742"/>
+          <a:ext cx="753035" cy="242046"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510988</xdr:colOff>
+      <xdr:row>432</xdr:row>
+      <xdr:rowOff>53789</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="75" name="Straight Arrow Connector 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7CFB00-81C3-4BBB-B3A2-3AB4AD0C6295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5325035" y="77867435"/>
+          <a:ext cx="62753" cy="358589"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>125506</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>80682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>519953</xdr:colOff>
+      <xdr:row>471</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="Straight Arrow Connector 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF840E39-F41D-47F0-A5D3-55A722A8698B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3783106" y="78611506"/>
+          <a:ext cx="1613647" cy="6642847"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>489</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>262318</xdr:colOff>
+      <xdr:row>505</xdr:row>
+      <xdr:rowOff>60302</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E46F7C9-DDB4-83BD-C389-B75B463E8759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627529" y="88562329"/>
+          <a:ext cx="6340389" cy="2758679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8021,7 +11158,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD7AF0DE-446F-E11C-5408-59B0667BE932}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8077,7 +11214,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3291E062-284E-4394-8F9D-B52608A17E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8382,7 +11519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8417,29 +11554,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="18">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="18"/>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -8557,7 +11694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8578,7 +11715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="B2:G3"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -8610,7 +11747,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8637,7 +11774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="B2:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -8668,7 +11805,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="B33:B83"/>
   <sheetViews>
     <sheetView topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -8695,7 +11832,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
@@ -8717,10 +11854,10 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
@@ -8739,7 +11876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8767,7 +11904,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8789,7 +11926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8810,7 +11947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8825,7 +11962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B26:I138"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -8879,7 +12016,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -8936,11 +12073,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I116"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A2:O489"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8980,14 +12117,111 @@
         <v>37</v>
       </c>
     </row>
+    <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A146" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="A166" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B168" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="187" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>65</v>
+      </c>
+      <c r="O187" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A214" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>67</v>
+      </c>
+      <c r="F216" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I216" t="s">
+        <v>71</v>
+      </c>
+      <c r="K216" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F217" s="12"/>
+    </row>
+    <row r="252" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A252" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A283" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A316" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B354" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A391" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A423" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="487" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B487" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C487" s="20"/>
+      <c r="D487" s="20"/>
+    </row>
+    <row r="488" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B488" s="20"/>
+      <c r="C488" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D488" s="20"/>
+    </row>
+    <row r="489" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B489" s="20"/>
+      <c r="C489" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="D489" s="20"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Angular Udemy notes.xlsx
+++ b/Angular Udemy notes.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\All File NS\NOVELSOFT FILE\HICHEEL SURGALT\ANGULER\Angular in Udemy temdeglel\course-app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FILES\PROGRAM\Udemy\Angular\udemy-course-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C524019D-DD8B-40DF-853C-3591CF1D2D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="command" sheetId="1" r:id="rId1"/>
@@ -29,6 +28,7 @@
     <sheet name="lifecycle hook" sheetId="15" r:id="rId14"/>
     <sheet name="@ContentChild" sheetId="16" r:id="rId15"/>
     <sheet name="setInterval" sheetId="17" r:id="rId16"/>
+    <sheet name="Service.ts" sheetId="18" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>node -v</t>
   </si>
@@ -299,11 +299,29 @@
   <si>
     <t>*ngSwitchDefaukt</t>
   </si>
+  <si>
+    <t>service.ts</t>
+  </si>
+  <si>
+    <t>109. Injecting the Logging Service into Components</t>
+  </si>
+  <si>
+    <t>111. Injecting Services into Services</t>
+  </si>
+  <si>
+    <t>`@Injectable(0</t>
+  </si>
+  <si>
+    <t>Service дотор service дуудах үед энэхүү decorator-г ашиглана.</t>
+  </si>
+  <si>
+    <t>Бүх component дээр providers бичих шаардлагагүй бөгөөд module.ts дээр бичвэл бүх child component ашиглах боломжтой болно.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +473,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3495,6 +3513,748 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>292439</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="769620" y="312420"/>
+          <a:ext cx="7447619" cy="2419048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>431369</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>50531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8976360" y="320040"/>
+          <a:ext cx="8523809" cy="7228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1264920" y="929640"/>
+          <a:ext cx="6751320" cy="1287780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53341</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9806941" y="2758440"/>
+          <a:ext cx="2537460" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>365761</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9944101" y="4107180"/>
+          <a:ext cx="3832860" cy="495300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9951720" y="6408420"/>
+          <a:ext cx="4808220" cy="243840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104384</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>41754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>187570</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>7500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="709809" y="9102247"/>
+          <a:ext cx="6742857" cy="7857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>31316</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>83507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219205</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1242165" y="10313096"/>
+          <a:ext cx="1398739" cy="292274"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>386220</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>146138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>93945</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>156575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1597069" y="14133535"/>
+          <a:ext cx="5156547" cy="386218"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>93947</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>13255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>354906</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>167012</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6753618" y="13812762"/>
+          <a:ext cx="260959" cy="341647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="mn-MN" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>10438</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>154866</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>65055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19989452" y="1096029"/>
+          <a:ext cx="7409524" cy="6714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>411061</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>342480</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20995499" y="6251845"/>
+          <a:ext cx="4774817" cy="248850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427973</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>135698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>334028</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104384</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0D00-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10720192" y="3559479"/>
+          <a:ext cx="10198274" cy="2787042"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11519,7 +12279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11554,29 +12314,29 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="18">
+      <c r="A3" s="20">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="20"/>
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -11694,7 +12454,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11715,11 +12475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G3"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="S22" sqref="S22"/>
+      <selection activeCell="R55" sqref="R55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11747,7 +12507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11774,7 +12534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C21"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
@@ -11805,10 +12565,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B33:B83"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A108" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I83" sqref="I83"/>
     </sheetView>
   </sheetViews>
@@ -11832,7 +12592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
@@ -11854,7 +12614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11875,8 +12635,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AH47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="73" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:34" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C3" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A46" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C47" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11904,7 +12709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11926,7 +12731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11947,7 +12752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11962,7 +12767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B26:I138"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
@@ -12016,7 +12821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D54"/>
   <sheetViews>
     <sheetView topLeftCell="A81" workbookViewId="0">
@@ -12073,10 +12878,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O489"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A400" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
@@ -12193,25 +12998,25 @@
       </c>
     </row>
     <row r="487" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B487" s="19" t="s">
+      <c r="B487" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C487" s="20"/>
-      <c r="D487" s="20"/>
+      <c r="C487" s="19"/>
+      <c r="D487" s="19"/>
     </row>
     <row r="488" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B488" s="20"/>
-      <c r="C488" s="19" t="s">
+      <c r="B488" s="19"/>
+      <c r="C488" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D488" s="20"/>
+      <c r="D488" s="19"/>
     </row>
     <row r="489" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B489" s="20"/>
-      <c r="C489" s="19" t="s">
+      <c r="B489" s="19"/>
+      <c r="C489" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D489" s="20"/>
+      <c r="D489" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12221,7 +13026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
